--- a/Code/Results/Cases/Case_4_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.363919918904628</v>
+        <v>2.45077905506912</v>
       </c>
       <c r="C2">
-        <v>0.6017392966312229</v>
+        <v>0.2032878802410494</v>
       </c>
       <c r="D2">
-        <v>0.2304062258284745</v>
+        <v>0.4437987674050845</v>
       </c>
       <c r="E2">
-        <v>0.04429741241584573</v>
+        <v>0.1198194495716205</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.826801458435114</v>
+        <v>2.560828586082749</v>
       </c>
       <c r="H2">
-        <v>1.112082065120859</v>
+        <v>2.043167260661107</v>
       </c>
       <c r="I2">
-        <v>1.049829919150589</v>
+        <v>1.890953932940029</v>
       </c>
       <c r="J2">
-        <v>0.02407466298525307</v>
+        <v>0.03463636307316342</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4739948592646357</v>
+        <v>0.6288189362564225</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931768011900886</v>
+        <v>2.345194687835829</v>
       </c>
       <c r="C3">
-        <v>0.5200133933800828</v>
+        <v>0.1806486192394061</v>
       </c>
       <c r="D3">
-        <v>0.2172422903556566</v>
+        <v>0.4431670987413128</v>
       </c>
       <c r="E3">
-        <v>0.04430592582981951</v>
+        <v>0.1203823107775754</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.711021567174924</v>
+        <v>2.551899791039659</v>
       </c>
       <c r="H3">
-        <v>1.069222572278164</v>
+        <v>2.046860853131591</v>
       </c>
       <c r="I3">
-        <v>1.020971753697296</v>
+        <v>1.897701294535729</v>
       </c>
       <c r="J3">
-        <v>0.02295457005176438</v>
+        <v>0.03423350640571243</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4274495942958225</v>
+        <v>0.6206341304872467</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.66961466526709</v>
+        <v>2.28150492424561</v>
       </c>
       <c r="C4">
-        <v>0.470346599855759</v>
+        <v>0.1667957781242251</v>
       </c>
       <c r="D4">
-        <v>0.2095169696040813</v>
+        <v>0.4429665283869042</v>
       </c>
       <c r="E4">
-        <v>0.04436123218072296</v>
+        <v>0.1207619271742351</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.644401963301135</v>
+        <v>2.548007462160143</v>
       </c>
       <c r="H4">
-        <v>1.045309615055032</v>
+        <v>2.050160513903705</v>
       </c>
       <c r="I4">
-        <v>1.005769778440779</v>
+        <v>1.902862952720348</v>
       </c>
       <c r="J4">
-        <v>0.02226928016827578</v>
+        <v>0.03398184900739132</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3995511019311095</v>
+        <v>0.6159107783568487</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.56348078094851</v>
+        <v>2.255837911607273</v>
       </c>
       <c r="C5">
-        <v>0.450213681966801</v>
+        <v>0.1611625147778</v>
       </c>
       <c r="D5">
-        <v>0.2064525464961378</v>
+        <v>0.4429318942588054</v>
       </c>
       <c r="E5">
-        <v>0.04439593802408393</v>
+        <v>0.1209251886249083</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.618287932866991</v>
+        <v>2.546819693806498</v>
       </c>
       <c r="H5">
-        <v>1.036127451872687</v>
+        <v>2.051764110760217</v>
       </c>
       <c r="I5">
-        <v>1.000165249323757</v>
+        <v>1.905221886798564</v>
       </c>
       <c r="J5">
-        <v>0.02199033732176758</v>
+        <v>0.03387821051555306</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.388337366185084</v>
+        <v>0.6140619494108535</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.545896406121017</v>
+        <v>2.251593280070551</v>
       </c>
       <c r="C6">
-        <v>0.4468764523669506</v>
+        <v>0.1602278297683313</v>
       </c>
       <c r="D6">
-        <v>0.2059485859348911</v>
+        <v>0.4429289882687328</v>
       </c>
       <c r="E6">
-        <v>0.04440242400041061</v>
+        <v>0.1209528156684829</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.614011670371923</v>
+        <v>2.546646485765052</v>
       </c>
       <c r="H6">
-        <v>1.034635580396014</v>
+        <v>2.052046012962421</v>
       </c>
       <c r="I6">
-        <v>0.9992690980298207</v>
+        <v>1.905628999412123</v>
       </c>
       <c r="J6">
-        <v>0.02194403008332912</v>
+        <v>0.03386093570253301</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3864842597427014</v>
+        <v>0.6137595415167851</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.668180623850219</v>
+        <v>2.281157606795034</v>
       </c>
       <c r="C7">
-        <v>0.4700746764506789</v>
+        <v>0.1667197580154038</v>
       </c>
       <c r="D7">
-        <v>0.2094753105908183</v>
+        <v>0.442965870581375</v>
       </c>
       <c r="E7">
-        <v>0.04436165150610183</v>
+        <v>0.1207640942828014</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.64404570756011</v>
+        <v>2.547989832349913</v>
       </c>
       <c r="H7">
-        <v>1.04518355613618</v>
+        <v>2.050181092728479</v>
       </c>
       <c r="I7">
-        <v>1.005691857142963</v>
+        <v>1.90289373243931</v>
       </c>
       <c r="J7">
-        <v>0.02226551733359017</v>
+        <v>0.03398045570535047</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3993992616771322</v>
+        <v>0.6158855367816614</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.214185024037647</v>
+        <v>2.414137352505804</v>
       </c>
       <c r="C8">
-        <v>0.5734396102192818</v>
+        <v>0.195471865945251</v>
       </c>
       <c r="D8">
-        <v>0.2257892611835786</v>
+        <v>0.4435421017395953</v>
       </c>
       <c r="E8">
-        <v>0.04428968804494637</v>
+        <v>0.1200064702160724</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.785896454193932</v>
+        <v>2.557419065084076</v>
       </c>
       <c r="H8">
-        <v>1.096779240959904</v>
+        <v>2.044226364750614</v>
       </c>
       <c r="I8">
-        <v>1.039330550028254</v>
+        <v>1.893068582902892</v>
       </c>
       <c r="J8">
-        <v>0.02368775785177846</v>
+        <v>0.03449834819823394</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4577947725762925</v>
+        <v>0.6259340963883773</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.315540390451588</v>
+        <v>2.68394494584777</v>
       </c>
       <c r="C9">
-        <v>0.7813324954432233</v>
+        <v>0.2522425119192917</v>
       </c>
       <c r="D9">
-        <v>0.2609228058277466</v>
+        <v>0.4461583286881847</v>
       </c>
       <c r="E9">
-        <v>0.04456691714415228</v>
+        <v>0.1187902291134009</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.103996345030509</v>
+        <v>2.588594437314896</v>
       </c>
       <c r="H9">
-        <v>1.219094041359824</v>
+        <v>2.040760030114683</v>
       </c>
       <c r="I9">
-        <v>1.127375436307005</v>
+        <v>1.881915832347417</v>
       </c>
       <c r="J9">
-        <v>0.02651129678590358</v>
+        <v>0.03548003766637819</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5785059492562681</v>
+        <v>0.648038876350796</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.151723512179956</v>
+        <v>2.887698414820591</v>
       </c>
       <c r="C10">
-        <v>0.9389958083484657</v>
+        <v>0.2942053157436817</v>
       </c>
       <c r="D10">
-        <v>0.2891256393423305</v>
+        <v>0.4489878244571628</v>
       </c>
       <c r="E10">
-        <v>0.04505801514600982</v>
+        <v>0.1180603397549174</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.368974821646901</v>
+        <v>2.619333625469096</v>
       </c>
       <c r="H10">
-        <v>1.32505464516251</v>
+        <v>2.043255237070866</v>
       </c>
       <c r="I10">
-        <v>1.208786608296549</v>
+        <v>1.878713569733065</v>
       </c>
       <c r="J10">
-        <v>0.02863062020366769</v>
+        <v>0.03618100688560943</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6722143699554977</v>
+        <v>0.6657479873469185</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.540123907664395</v>
+        <v>2.981597243645695</v>
       </c>
       <c r="C11">
-        <v>1.012242064496093</v>
+        <v>0.3133543424183074</v>
       </c>
       <c r="D11">
-        <v>0.3025956466582613</v>
+        <v>0.4504724267976599</v>
       </c>
       <c r="E11">
-        <v>0.04535204509435786</v>
+        <v>0.1177637172498489</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.498080887806879</v>
+        <v>2.63504137815184</v>
       </c>
       <c r="H11">
-        <v>1.377575008126712</v>
+        <v>2.045493309029268</v>
       </c>
       <c r="I11">
-        <v>1.250287879058618</v>
+        <v>1.878350570141436</v>
       </c>
       <c r="J11">
-        <v>0.02961069740814892</v>
+        <v>0.03649558039734657</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7162529737417174</v>
+        <v>0.674124767461052</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.688556323863054</v>
+        <v>3.017328377301396</v>
       </c>
       <c r="C12">
-        <v>1.040240911075671</v>
+        <v>0.3206144416898837</v>
       </c>
       <c r="D12">
-        <v>0.3077999510646379</v>
+        <v>0.4510630176499575</v>
       </c>
       <c r="E12">
-        <v>0.04547432234071458</v>
+        <v>0.1176564761608176</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.548371208738445</v>
+        <v>2.641239180195896</v>
       </c>
       <c r="H12">
-        <v>1.398162715005583</v>
+        <v>2.046500044412255</v>
       </c>
       <c r="I12">
-        <v>1.266725507383555</v>
+        <v>1.878371173210212</v>
       </c>
       <c r="J12">
-        <v>0.02998472512821238</v>
+        <v>0.03661408864945059</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7331622755897769</v>
+        <v>0.6773430465172794</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.656525074431897</v>
+        <v>3.009625318965902</v>
       </c>
       <c r="C13">
-        <v>1.034198459768163</v>
+        <v>0.3190504563678189</v>
       </c>
       <c r="D13">
-        <v>0.3066743106773231</v>
+        <v>0.4509345598659991</v>
       </c>
       <c r="E13">
-        <v>0.04544748803311016</v>
+        <v>0.1176793464904016</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.537475073504254</v>
+        <v>2.639893244282746</v>
       </c>
       <c r="H13">
-        <v>1.393696322420027</v>
+        <v>2.046276134389899</v>
       </c>
       <c r="I13">
-        <v>1.263151881803694</v>
+        <v>1.878359693469747</v>
       </c>
       <c r="J13">
-        <v>0.02990403250013429</v>
+        <v>0.03658859300694672</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7295096800115743</v>
+        <v>0.6766478782189864</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.552307162737407</v>
+        <v>2.98453338652871</v>
       </c>
       <c r="C14">
-        <v>1.014540028544104</v>
+        <v>0.3139514582803713</v>
       </c>
       <c r="D14">
-        <v>0.3030216631170646</v>
+        <v>0.4505204457315841</v>
       </c>
       <c r="E14">
-        <v>0.04536188098151506</v>
+        <v>0.1177547926278617</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.502189187631245</v>
+        <v>2.635546262809527</v>
       </c>
       <c r="H14">
-        <v>1.379254269639347</v>
+        <v>2.045572939063192</v>
       </c>
       <c r="I14">
-        <v>1.251625250410697</v>
+        <v>1.878349092819477</v>
       </c>
       <c r="J14">
-        <v>0.02964140719523556</v>
+        <v>0.03650534241988979</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7176392600939039</v>
+        <v>0.6743886115613407</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.488653353910649</v>
+        <v>2.969186462309835</v>
       </c>
       <c r="C15">
-        <v>1.002534169292943</v>
+        <v>0.3108293227999468</v>
       </c>
       <c r="D15">
-        <v>0.3007981531077348</v>
+        <v>0.4502704882848576</v>
       </c>
       <c r="E15">
-        <v>0.0453108928733883</v>
+        <v>0.1178016673363178</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.480763347121638</v>
+        <v>2.632916168108636</v>
       </c>
       <c r="H15">
-        <v>1.370501672858211</v>
+        <v>2.04516296601571</v>
       </c>
       <c r="I15">
-        <v>1.244661416996664</v>
+        <v>1.878363207557001</v>
       </c>
       <c r="J15">
-        <v>0.02948093752871017</v>
+        <v>0.03645426921896089</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7103995638874636</v>
+        <v>0.6730107600551065</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.126518554292431</v>
+        <v>2.881586228966853</v>
       </c>
       <c r="C16">
-        <v>0.934243209488443</v>
+        <v>0.2929551013737068</v>
       </c>
       <c r="D16">
-        <v>0.2882591739126354</v>
+        <v>0.4488947763144608</v>
       </c>
       <c r="E16">
-        <v>0.04504028526173975</v>
+        <v>0.1180804365256325</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.360723766895831</v>
+        <v>2.618341926535237</v>
       </c>
       <c r="H16">
-        <v>1.321715693687906</v>
+        <v>2.043131221390411</v>
       </c>
       <c r="I16">
-        <v>1.206170874484528</v>
+        <v>1.878759368271801</v>
       </c>
       <c r="J16">
-        <v>0.02856694056382203</v>
+        <v>0.03616036260835642</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6693672054562256</v>
+        <v>0.6652070041220526</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.906549080188483</v>
+        <v>2.828156052146255</v>
       </c>
       <c r="C17">
-        <v>0.8927681790467545</v>
+        <v>0.2820053079680349</v>
       </c>
       <c r="D17">
-        <v>0.2807386367375813</v>
+        <v>0.4481014006826598</v>
       </c>
       <c r="E17">
-        <v>0.04489289116253659</v>
+        <v>0.1182605153101921</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.289391021486381</v>
+        <v>2.609843922559946</v>
       </c>
       <c r="H17">
-        <v>1.292945889034257</v>
+        <v>2.042167750953297</v>
       </c>
       <c r="I17">
-        <v>1.18375589663647</v>
+        <v>1.879283087165476</v>
       </c>
       <c r="J17">
-        <v>0.02801072591093146</v>
+        <v>0.03597896206967377</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6445766068321035</v>
+        <v>0.6605018491596724</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.780769609692129</v>
+        <v>2.797538370780899</v>
       </c>
       <c r="C18">
-        <v>0.8690534562589676</v>
+        <v>0.275712907937617</v>
       </c>
       <c r="D18">
-        <v>0.2764725401973891</v>
+        <v>0.4476636562187224</v>
       </c>
       <c r="E18">
-        <v>0.04481471004796234</v>
+        <v>0.1183674250960465</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.249157318609377</v>
+        <v>2.605118298697647</v>
       </c>
       <c r="H18">
-        <v>1.276799488232342</v>
+        <v>2.041717369511332</v>
       </c>
       <c r="I18">
-        <v>1.171278527890806</v>
+        <v>1.879687215680576</v>
       </c>
       <c r="J18">
-        <v>0.02769227059242141</v>
+        <v>0.03587422017841746</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6304484378821087</v>
+        <v>0.6578257624865103</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.738304412473951</v>
+        <v>2.787191331552037</v>
       </c>
       <c r="C19">
-        <v>0.8610469910242955</v>
+        <v>0.2735833718832907</v>
       </c>
       <c r="D19">
-        <v>0.2750380095537253</v>
+        <v>0.4475186350129547</v>
       </c>
       <c r="E19">
-        <v>0.04478934989552386</v>
+        <v>0.118404195650438</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.23566661191586</v>
+        <v>2.60354609188451</v>
       </c>
       <c r="H19">
-        <v>1.271399273303672</v>
+        <v>2.041582683918904</v>
       </c>
       <c r="I19">
-        <v>1.167122935680226</v>
+        <v>1.87984169581614</v>
       </c>
       <c r="J19">
-        <v>0.02758468181379037</v>
+        <v>0.0358386866603162</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6256864786879675</v>
+        <v>0.6569248701981536</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.929887123214939</v>
+        <v>2.833831995780542</v>
       </c>
       <c r="C20">
-        <v>0.897168420207521</v>
+        <v>0.2831703481856778</v>
       </c>
       <c r="D20">
-        <v>0.2815329725771392</v>
+        <v>0.4481839334041524</v>
       </c>
       <c r="E20">
-        <v>0.04490789349902435</v>
+        <v>0.1182410006994203</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.296901077273077</v>
+        <v>2.610731750242167</v>
       </c>
       <c r="H20">
-        <v>1.295966421077367</v>
+        <v>2.042259568656135</v>
       </c>
       <c r="I20">
-        <v>1.186098498798799</v>
+        <v>1.879216681073885</v>
       </c>
       <c r="J20">
-        <v>0.02806978027257045</v>
+        <v>0.03599831436032908</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6472018725636133</v>
+        <v>0.6609995956912087</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.582880026450482</v>
+        <v>2.991898784230216</v>
       </c>
       <c r="C21">
-        <v>1.020306704164369</v>
+        <v>0.3154489180666076</v>
       </c>
       <c r="D21">
-        <v>0.304091627180469</v>
+        <v>0.4506413101136957</v>
       </c>
       <c r="E21">
-        <v>0.04538672242047248</v>
+        <v>0.1177324943705074</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.512514041560308</v>
+        <v>2.636816288816931</v>
       </c>
       <c r="H21">
-        <v>1.38347659486513</v>
+        <v>2.045775158264661</v>
       </c>
       <c r="I21">
-        <v>1.254990621554697</v>
+        <v>1.87834791039657</v>
       </c>
       <c r="J21">
-        <v>0.02971846292429348</v>
+        <v>0.03652981175984493</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7211193126397006</v>
+        <v>0.6750509594356799</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.017650726980605</v>
+        <v>3.096216800478942</v>
       </c>
       <c r="C22">
-        <v>1.102336377368147</v>
+        <v>0.3365960763740077</v>
       </c>
       <c r="D22">
-        <v>0.3194446702834881</v>
+        <v>0.4524129154284111</v>
       </c>
       <c r="E22">
-        <v>0.04576383069261425</v>
+        <v>0.1174297824485429</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.661688195540876</v>
+        <v>2.655319781484906</v>
       </c>
       <c r="H22">
-        <v>1.444790012305987</v>
+        <v>2.049001183040957</v>
       </c>
       <c r="I22">
-        <v>1.304268524676885</v>
+        <v>1.878701801214447</v>
       </c>
       <c r="J22">
-        <v>0.0308131778887244</v>
+        <v>0.03687359988033378</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7708025821142996</v>
+        <v>0.6845034994222772</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.784800068848085</v>
+        <v>3.040447800920674</v>
       </c>
       <c r="C23">
-        <v>1.058397951223441</v>
+        <v>0.3253046962329336</v>
       </c>
       <c r="D23">
-        <v>0.3111905287093606</v>
+        <v>0.4514522227858606</v>
       </c>
       <c r="E23">
-        <v>0.04555640741348732</v>
+        <v>0.1175886373452926</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.581253897182449</v>
+        <v>2.64531036725657</v>
       </c>
       <c r="H23">
-        <v>1.411660265365981</v>
+        <v>2.047194239653209</v>
       </c>
       <c r="I23">
-        <v>1.277549798599139</v>
+        <v>1.878428327349852</v>
       </c>
       <c r="J23">
-        <v>0.03022711468891615</v>
+        <v>0.03669043937960481</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7441490210100881</v>
+        <v>0.6794338576990526</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.919333878590919</v>
+        <v>2.831265590025453</v>
       </c>
       <c r="C24">
-        <v>0.8951786699709032</v>
+        <v>0.2826436248531934</v>
       </c>
       <c r="D24">
-        <v>0.2811736749006428</v>
+        <v>0.448146563118641</v>
       </c>
       <c r="E24">
-        <v>0.04490109057452152</v>
+        <v>0.1182498127258835</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.293503375096776</v>
+        <v>2.610329865111311</v>
       </c>
       <c r="H24">
-        <v>1.294599617919346</v>
+        <v>2.042217735421531</v>
       </c>
       <c r="I24">
-        <v>1.185038139374882</v>
+        <v>1.87924638237466</v>
       </c>
       <c r="J24">
-        <v>0.02804307772834136</v>
+        <v>0.03598956659908303</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.646014605056024</v>
+        <v>0.6607744742530315</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.013508006368795</v>
+        <v>2.609985911450849</v>
       </c>
       <c r="C25">
-        <v>0.7243662335613692</v>
+        <v>0.2368412985750297</v>
       </c>
       <c r="D25">
-        <v>0.2510358784403337</v>
+        <v>0.4452913293299048</v>
       </c>
       <c r="E25">
-        <v>0.04444399029623725</v>
+        <v>0.1190904683949903</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.012996995325238</v>
+        <v>2.578792221166594</v>
       </c>
       <c r="H25">
-        <v>1.183431431273306</v>
+        <v>2.040815002779482</v>
       </c>
       <c r="I25">
-        <v>1.100877403570202</v>
+        <v>1.884059625832521</v>
       </c>
       <c r="J25">
-        <v>0.02574147082785849</v>
+        <v>0.03521805390600719</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5450665704956492</v>
+        <v>0.6418014661604303</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.45077905506912</v>
+        <v>3.363919918904458</v>
       </c>
       <c r="C2">
-        <v>0.2032878802410494</v>
+        <v>0.6017392966311661</v>
       </c>
       <c r="D2">
-        <v>0.4437987674050845</v>
+        <v>0.2304062258282897</v>
       </c>
       <c r="E2">
-        <v>0.1198194495716205</v>
+        <v>0.04429741241586349</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.560828586082749</v>
+        <v>1.826801458435057</v>
       </c>
       <c r="H2">
-        <v>2.043167260661107</v>
+        <v>1.112082065121001</v>
       </c>
       <c r="I2">
-        <v>1.890953932940029</v>
+        <v>1.049829919150582</v>
       </c>
       <c r="J2">
-        <v>0.03463636307316342</v>
+        <v>0.02407466298542182</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6288189362564225</v>
+        <v>0.4739948592646357</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.345194687835829</v>
+        <v>2.931768011900772</v>
       </c>
       <c r="C3">
-        <v>0.1806486192394061</v>
+        <v>0.520013393380367</v>
       </c>
       <c r="D3">
-        <v>0.4431670987413128</v>
+        <v>0.2172422903557845</v>
       </c>
       <c r="E3">
-        <v>0.1203823107775754</v>
+        <v>0.04430592582982484</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.551899791039659</v>
+        <v>1.711021567174953</v>
       </c>
       <c r="H3">
-        <v>2.046860853131591</v>
+        <v>1.069222572278022</v>
       </c>
       <c r="I3">
-        <v>1.897701294535729</v>
+        <v>1.02097175369726</v>
       </c>
       <c r="J3">
-        <v>0.03423350640571243</v>
+        <v>0.02295457005181234</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6206341304872467</v>
+        <v>0.4274495942958083</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.28150492424561</v>
+        <v>2.669614665266977</v>
       </c>
       <c r="C4">
-        <v>0.1667957781242251</v>
+        <v>0.4703465998556169</v>
       </c>
       <c r="D4">
-        <v>0.4429665283869042</v>
+        <v>0.209516969604195</v>
       </c>
       <c r="E4">
-        <v>0.1207619271742351</v>
+        <v>0.04436123218072741</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.548007462160143</v>
+        <v>1.644401963301078</v>
       </c>
       <c r="H4">
-        <v>2.050160513903705</v>
+        <v>1.045309615054862</v>
       </c>
       <c r="I4">
-        <v>1.902862952720348</v>
+        <v>1.005769778440772</v>
       </c>
       <c r="J4">
-        <v>0.03398184900739132</v>
+        <v>0.02226928016834151</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6159107783568487</v>
+        <v>0.3995511019310385</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.255837911607273</v>
+        <v>2.563480780948453</v>
       </c>
       <c r="C5">
-        <v>0.1611625147778</v>
+        <v>0.4502136819666873</v>
       </c>
       <c r="D5">
-        <v>0.4429318942588054</v>
+        <v>0.2064525464960241</v>
       </c>
       <c r="E5">
-        <v>0.1209251886249083</v>
+        <v>0.04439593802407771</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.546819693806498</v>
+        <v>1.618287932866934</v>
       </c>
       <c r="H5">
-        <v>2.051764110760217</v>
+        <v>1.036127451872687</v>
       </c>
       <c r="I5">
-        <v>1.905221886798564</v>
+        <v>1.00016524932375</v>
       </c>
       <c r="J5">
-        <v>0.03387821051555306</v>
+        <v>0.02199033732178357</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6140619494108535</v>
+        <v>0.3883373661851266</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.251593280070551</v>
+        <v>2.545896406121187</v>
       </c>
       <c r="C6">
-        <v>0.1602278297683313</v>
+        <v>0.4468764523672633</v>
       </c>
       <c r="D6">
-        <v>0.4429289882687328</v>
+        <v>0.2059485859349621</v>
       </c>
       <c r="E6">
-        <v>0.1209528156684829</v>
+        <v>0.04440242400039462</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.546646485765052</v>
+        <v>1.614011670372065</v>
       </c>
       <c r="H6">
-        <v>2.052046012962421</v>
+        <v>1.034635580395985</v>
       </c>
       <c r="I6">
-        <v>1.905628999412123</v>
+        <v>0.9992690980298136</v>
       </c>
       <c r="J6">
-        <v>0.03386093570253301</v>
+        <v>0.02194403008331847</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6137595415167851</v>
+        <v>0.3864842597426872</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.281157606795034</v>
+        <v>2.668180623850105</v>
       </c>
       <c r="C7">
-        <v>0.1667197580154038</v>
+        <v>0.4700746764509631</v>
       </c>
       <c r="D7">
-        <v>0.442965870581375</v>
+        <v>0.2094753105909462</v>
       </c>
       <c r="E7">
-        <v>0.1207640942828014</v>
+        <v>0.04436165150610005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.547989832349913</v>
+        <v>1.644045707560082</v>
       </c>
       <c r="H7">
-        <v>2.050181092728479</v>
+        <v>1.045183556136294</v>
       </c>
       <c r="I7">
-        <v>1.90289373243931</v>
+        <v>1.005691857142963</v>
       </c>
       <c r="J7">
-        <v>0.03398045570535047</v>
+        <v>0.02226551733363991</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6158855367816614</v>
+        <v>0.399399261677047</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.414137352505804</v>
+        <v>3.214185024037931</v>
       </c>
       <c r="C8">
-        <v>0.195471865945251</v>
+        <v>0.573439610219225</v>
       </c>
       <c r="D8">
-        <v>0.4435421017395953</v>
+        <v>0.2257892611836212</v>
       </c>
       <c r="E8">
-        <v>0.1200064702160724</v>
+        <v>0.0442896880449446</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.557419065084076</v>
+        <v>1.785896454193875</v>
       </c>
       <c r="H8">
-        <v>2.044226364750614</v>
+        <v>1.096779240959904</v>
       </c>
       <c r="I8">
-        <v>1.893068582902892</v>
+        <v>1.039330550028254</v>
       </c>
       <c r="J8">
-        <v>0.03449834819823394</v>
+        <v>0.02368775785159372</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6259340963883773</v>
+        <v>0.4577947725762357</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.68394494584777</v>
+        <v>4.315540390451588</v>
       </c>
       <c r="C9">
-        <v>0.2522425119192917</v>
+        <v>0.7813324954436496</v>
       </c>
       <c r="D9">
-        <v>0.4461583286881847</v>
+        <v>0.2609228058276329</v>
       </c>
       <c r="E9">
-        <v>0.1187902291134009</v>
+        <v>0.04456691714418248</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.588594437314896</v>
+        <v>2.103996345030566</v>
       </c>
       <c r="H9">
-        <v>2.040760030114683</v>
+        <v>1.219094041359824</v>
       </c>
       <c r="I9">
-        <v>1.881915832347417</v>
+        <v>1.12737543630697</v>
       </c>
       <c r="J9">
-        <v>0.03548003766637819</v>
+        <v>0.02651129678589115</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.648038876350796</v>
+        <v>0.5785059492562397</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.887698414820591</v>
+        <v>5.151723512179899</v>
       </c>
       <c r="C10">
-        <v>0.2942053157436817</v>
+        <v>0.9389958083486363</v>
       </c>
       <c r="D10">
-        <v>0.4489878244571628</v>
+        <v>0.2891256393423163</v>
       </c>
       <c r="E10">
-        <v>0.1180603397549174</v>
+        <v>0.04505801514600805</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.619333625469096</v>
+        <v>2.36897482164693</v>
       </c>
       <c r="H10">
-        <v>2.043255237070866</v>
+        <v>1.32505464516251</v>
       </c>
       <c r="I10">
-        <v>1.878713569733065</v>
+        <v>1.208786608296563</v>
       </c>
       <c r="J10">
-        <v>0.03618100688560943</v>
+        <v>0.02863062020364104</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6657479873469185</v>
+        <v>0.672214369955455</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.981597243645695</v>
+        <v>5.540123907664338</v>
       </c>
       <c r="C11">
-        <v>0.3133543424183074</v>
+        <v>1.012242064496377</v>
       </c>
       <c r="D11">
-        <v>0.4504724267976599</v>
+        <v>0.3025956466582613</v>
       </c>
       <c r="E11">
-        <v>0.1177637172498489</v>
+        <v>0.04535204509439161</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.63504137815184</v>
+        <v>2.498080887806765</v>
       </c>
       <c r="H11">
-        <v>2.045493309029268</v>
+        <v>1.377575008126826</v>
       </c>
       <c r="I11">
-        <v>1.878350570141436</v>
+        <v>1.250287879058618</v>
       </c>
       <c r="J11">
-        <v>0.03649558039734657</v>
+        <v>0.02961069740817202</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.674124767461052</v>
+        <v>0.7162529737417316</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.017328377301396</v>
+        <v>5.688556323863054</v>
       </c>
       <c r="C12">
-        <v>0.3206144416898837</v>
+        <v>1.040240911075983</v>
       </c>
       <c r="D12">
-        <v>0.4510630176499575</v>
+        <v>0.3077999510647373</v>
       </c>
       <c r="E12">
-        <v>0.1176564761608176</v>
+        <v>0.0454743223406755</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.641239180195896</v>
+        <v>2.548371208738445</v>
       </c>
       <c r="H12">
-        <v>2.046500044412255</v>
+        <v>1.398162715005554</v>
       </c>
       <c r="I12">
-        <v>1.878371173210212</v>
+        <v>1.266725507383555</v>
       </c>
       <c r="J12">
-        <v>0.03661408864945059</v>
+        <v>0.02998472512816619</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6773430465172794</v>
+        <v>0.7331622755898337</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.009625318965902</v>
+        <v>5.656525074432068</v>
       </c>
       <c r="C13">
-        <v>0.3190504563678189</v>
+        <v>1.03419845976839</v>
       </c>
       <c r="D13">
-        <v>0.4509345598659991</v>
+        <v>0.3066743106770389</v>
       </c>
       <c r="E13">
-        <v>0.1176793464904016</v>
+        <v>0.04544748803310839</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.639893244282746</v>
+        <v>2.537475073504197</v>
       </c>
       <c r="H13">
-        <v>2.046276134389899</v>
+        <v>1.393696322419885</v>
       </c>
       <c r="I13">
-        <v>1.878359693469747</v>
+        <v>1.263151881803694</v>
       </c>
       <c r="J13">
-        <v>0.03658859300694672</v>
+        <v>0.02990403250015916</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6766478782189864</v>
+        <v>0.7295096800113754</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.98453338652871</v>
+        <v>5.552307162737293</v>
       </c>
       <c r="C14">
-        <v>0.3139514582803713</v>
+        <v>1.01454002854382</v>
       </c>
       <c r="D14">
-        <v>0.4505204457315841</v>
+        <v>0.3030216631171498</v>
       </c>
       <c r="E14">
-        <v>0.1177547926278617</v>
+        <v>0.04536188098161986</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.635546262809527</v>
+        <v>2.502189187631245</v>
       </c>
       <c r="H14">
-        <v>2.045572939063192</v>
+        <v>1.379254269639347</v>
       </c>
       <c r="I14">
-        <v>1.878349092819477</v>
+        <v>1.251625250410669</v>
       </c>
       <c r="J14">
-        <v>0.03650534241988979</v>
+        <v>0.02964140719524622</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6743886115613407</v>
+        <v>0.7176392600938613</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.969186462309835</v>
+        <v>5.488653353910536</v>
       </c>
       <c r="C15">
-        <v>0.3108293227999468</v>
+        <v>1.002534169293085</v>
       </c>
       <c r="D15">
-        <v>0.4502704882848576</v>
+        <v>0.3007981531077206</v>
       </c>
       <c r="E15">
-        <v>0.1178016673363178</v>
+        <v>0.04531089287341494</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.632916168108636</v>
+        <v>2.480763347121609</v>
       </c>
       <c r="H15">
-        <v>2.04516296601571</v>
+        <v>1.370501672858211</v>
       </c>
       <c r="I15">
-        <v>1.878363207557001</v>
+        <v>1.244661416996721</v>
       </c>
       <c r="J15">
-        <v>0.03645426921896089</v>
+        <v>0.0294809375285805</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6730107600551065</v>
+        <v>0.7103995638875347</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.881586228966853</v>
+        <v>5.126518554292602</v>
       </c>
       <c r="C16">
-        <v>0.2929551013737068</v>
+        <v>0.9342432094888125</v>
       </c>
       <c r="D16">
-        <v>0.4488947763144608</v>
+        <v>0.2882591739127491</v>
       </c>
       <c r="E16">
-        <v>0.1180804365256325</v>
+        <v>0.04504028526174153</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.618341926535237</v>
+        <v>2.360723766895859</v>
       </c>
       <c r="H16">
-        <v>2.043131221390411</v>
+        <v>1.321715693687963</v>
       </c>
       <c r="I16">
-        <v>1.878759368271801</v>
+        <v>1.206170874484542</v>
       </c>
       <c r="J16">
-        <v>0.03616036260835642</v>
+        <v>0.02856694056388953</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6652070041220526</v>
+        <v>0.6693672054562967</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.828156052146255</v>
+        <v>4.90654908018854</v>
       </c>
       <c r="C17">
-        <v>0.2820053079680349</v>
+        <v>0.8927681790469251</v>
       </c>
       <c r="D17">
-        <v>0.4481014006826598</v>
+        <v>0.2807386367373539</v>
       </c>
       <c r="E17">
-        <v>0.1182605153101921</v>
+        <v>0.04489289116254369</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.609843922559946</v>
+        <v>2.289391021486409</v>
       </c>
       <c r="H17">
-        <v>2.042167750953297</v>
+        <v>1.292945889034257</v>
       </c>
       <c r="I17">
-        <v>1.879283087165476</v>
+        <v>1.18375589663647</v>
       </c>
       <c r="J17">
-        <v>0.03597896206967377</v>
+        <v>0.02801072591084086</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6605018491596724</v>
+        <v>0.6445766068321035</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.797538370780899</v>
+        <v>4.7807696096923</v>
       </c>
       <c r="C18">
-        <v>0.275712907937617</v>
+        <v>0.8690534562590244</v>
       </c>
       <c r="D18">
-        <v>0.4476636562187224</v>
+        <v>0.2764725401976165</v>
       </c>
       <c r="E18">
-        <v>0.1183674250960465</v>
+        <v>0.04481471004802451</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.605118298697647</v>
+        <v>2.249157318609463</v>
       </c>
       <c r="H18">
-        <v>2.041717369511332</v>
+        <v>1.276799488232399</v>
       </c>
       <c r="I18">
-        <v>1.879687215680576</v>
+        <v>1.17127852789082</v>
       </c>
       <c r="J18">
-        <v>0.03587422017841746</v>
+        <v>0.02769227059245871</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6578257624865103</v>
+        <v>0.6304484378820803</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.787191331552037</v>
+        <v>4.738304412473894</v>
       </c>
       <c r="C19">
-        <v>0.2735833718832907</v>
+        <v>0.8610469910242102</v>
       </c>
       <c r="D19">
-        <v>0.4475186350129547</v>
+        <v>0.2750380095537253</v>
       </c>
       <c r="E19">
-        <v>0.118404195650438</v>
+        <v>0.04478934989549188</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.60354609188451</v>
+        <v>2.235666611915889</v>
       </c>
       <c r="H19">
-        <v>2.041582683918904</v>
+        <v>1.271399273303643</v>
       </c>
       <c r="I19">
-        <v>1.87984169581614</v>
+        <v>1.167122935680226</v>
       </c>
       <c r="J19">
-        <v>0.0358386866603162</v>
+        <v>0.0275846818138259</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6569248701981536</v>
+        <v>0.6256864786879817</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.833831995780542</v>
+        <v>4.929887123214996</v>
       </c>
       <c r="C20">
-        <v>0.2831703481856778</v>
+        <v>0.897168420207521</v>
       </c>
       <c r="D20">
-        <v>0.4481839334041524</v>
+        <v>0.2815329725768976</v>
       </c>
       <c r="E20">
-        <v>0.1182410006994203</v>
+        <v>0.04490789349906521</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.610731750242167</v>
+        <v>2.29690107727302</v>
       </c>
       <c r="H20">
-        <v>2.042259568656135</v>
+        <v>1.29596642107748</v>
       </c>
       <c r="I20">
-        <v>1.879216681073885</v>
+        <v>1.186098498798813</v>
       </c>
       <c r="J20">
-        <v>0.03599831436032908</v>
+        <v>0.02806978027261486</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6609995956912087</v>
+        <v>0.6472018725636559</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.991898784230216</v>
+        <v>5.582880026450482</v>
       </c>
       <c r="C21">
-        <v>0.3154489180666076</v>
+        <v>1.020306704164597</v>
       </c>
       <c r="D21">
-        <v>0.4506413101136957</v>
+        <v>0.3040916271805827</v>
       </c>
       <c r="E21">
-        <v>0.1177324943705074</v>
+        <v>0.04538672242049557</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.636816288816931</v>
+        <v>2.512514041560252</v>
       </c>
       <c r="H21">
-        <v>2.045775158264661</v>
+        <v>1.38347659486513</v>
       </c>
       <c r="I21">
-        <v>1.87834791039657</v>
+        <v>1.254990621554711</v>
       </c>
       <c r="J21">
-        <v>0.03652981175984493</v>
+        <v>0.02971846292413893</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6750509594356799</v>
+        <v>0.7211193126398001</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.096216800478942</v>
+        <v>6.017650726980719</v>
       </c>
       <c r="C22">
-        <v>0.3365960763740077</v>
+        <v>1.102336377368374</v>
       </c>
       <c r="D22">
-        <v>0.4524129154284111</v>
+        <v>0.319444670283346</v>
       </c>
       <c r="E22">
-        <v>0.1174297824485429</v>
+        <v>0.04576383069263201</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.655319781484906</v>
+        <v>2.661688195540904</v>
       </c>
       <c r="H22">
-        <v>2.049001183040957</v>
+        <v>1.444790012306015</v>
       </c>
       <c r="I22">
-        <v>1.878701801214447</v>
+        <v>1.304268524676914</v>
       </c>
       <c r="J22">
-        <v>0.03687359988033378</v>
+        <v>0.0308131778887315</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6845034994222772</v>
+        <v>0.7708025821143281</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.040447800920674</v>
+        <v>5.784800068847858</v>
       </c>
       <c r="C23">
-        <v>0.3253046962329336</v>
+        <v>1.058397951223725</v>
       </c>
       <c r="D23">
-        <v>0.4514522227858606</v>
+        <v>0.3111905287093322</v>
       </c>
       <c r="E23">
-        <v>0.1175886373452926</v>
+        <v>0.04555640741353706</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.64531036725657</v>
+        <v>2.581253897182336</v>
       </c>
       <c r="H23">
-        <v>2.047194239653209</v>
+        <v>1.411660265366066</v>
       </c>
       <c r="I23">
-        <v>1.878428327349852</v>
+        <v>1.277549798599139</v>
       </c>
       <c r="J23">
-        <v>0.03669043937960481</v>
+        <v>0.03022711468894457</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6794338576990526</v>
+        <v>0.7441490210100028</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.831265590025453</v>
+        <v>4.919333878590862</v>
       </c>
       <c r="C24">
-        <v>0.2826436248531934</v>
+        <v>0.8951786699709317</v>
       </c>
       <c r="D24">
-        <v>0.448146563118641</v>
+        <v>0.281173674900657</v>
       </c>
       <c r="E24">
-        <v>0.1182498127258835</v>
+        <v>0.04490109057453395</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.610329865111311</v>
+        <v>2.293503375096833</v>
       </c>
       <c r="H24">
-        <v>2.042217735421531</v>
+        <v>1.294599617919459</v>
       </c>
       <c r="I24">
-        <v>1.87924638237466</v>
+        <v>1.185038139374868</v>
       </c>
       <c r="J24">
-        <v>0.03598956659908303</v>
+        <v>0.02804307772842662</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6607744742530315</v>
+        <v>0.646014605056024</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.609985911450849</v>
+        <v>4.013508006368625</v>
       </c>
       <c r="C25">
-        <v>0.2368412985750297</v>
+        <v>0.7243662335615682</v>
       </c>
       <c r="D25">
-        <v>0.4452913293299048</v>
+        <v>0.2510358784403195</v>
       </c>
       <c r="E25">
-        <v>0.1190904683949903</v>
+        <v>0.04444399029620882</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.578792221166594</v>
+        <v>2.012996995325267</v>
       </c>
       <c r="H25">
-        <v>2.040815002779482</v>
+        <v>1.183431431273192</v>
       </c>
       <c r="I25">
-        <v>1.884059625832521</v>
+        <v>1.100877403570188</v>
       </c>
       <c r="J25">
-        <v>0.03521805390600719</v>
+        <v>0.0257414708279029</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6418014661604303</v>
+        <v>0.5450665704955782</v>
       </c>
       <c r="M25">
         <v>0</v>
